--- a/StructureDefinition-profile-ActivityDefinition.xlsx
+++ b/StructureDefinition-profile-ActivityDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4140" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6111782-06:00</t>
+    <t>2026-02-09T22:05:42.9681585-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -443,6 +443,35 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ActivityDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `ActivityDefinition.versionAlgorithm[x]` is will have a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.subject|0.0.1-snapshot-3}
 </t>
   </si>
@@ -453,11 +482,71 @@
     <t>A code, group definition, or canonical reference that describes  or identifies the intended subject of the activity being defined.  Canonical references are allowed to support the definition of protocols for drug and substance quality specifications, and is allowed to reference a MedicinalProductDefinition, SubstanceDefinition, AdministrableProductDefinition, ManufacturedItemDefinition, or PackagedProductDefinition resource.</t>
   </si>
   <si>
-    <t>Note that the choice of canonical for the subject element was introduced in R4B to support pharmaceutical quality use cases. To ensure as much backwards-compatibility as possible, it is recommended to only use the new canonical type with these use cases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
+    <t>Note that the target element context `ActivityDefinition.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.
+Element `ActivityDefinition.subject[x]` is mapped to FHIR R4 element `ActivityDefinition.subject[x]`.
+Note that the target element context `ActivityDefinition.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.extension:subjectCanonical</t>
+  </si>
+  <si>
+    <t>subjectCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/AdministrableProductDefinition,http://hl7.org/fhir/StructureDefinition/EvidenceVariable,http://hl7.org/fhir/StructureDefinition/ManufacturedItemDefinition,http://hl7.org/fhir/StructureDefinition/MedicinalProductDefinition,http://hl7.org/fhir/StructureDefinition/PackagedProductDefinition,http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.extension:subjectReference</t>
+  </si>
+  <si>
+    <t>subjectReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/AdministrableProductDefinition,http://hl7.org/fhir/StructureDefinition/EvidenceVariable,http://hl7.org/fhir/StructureDefinition/ManufacturedItemDefinition,http://hl7.org/fhir/StructureDefinition/MedicinalProductDefinition,http://hl7.org/fhir/StructureDefinition/PackagedProductDefinition,http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.copyrightLabel|0.0.1-snapshot-3}
 </t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `ActivityDefinition.copyrightLabel` is will have a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.extension:asNeeded</t>
+  </si>
+  <si>
+    <t>asNeeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.asNeeded|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.asNeeded[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>Element `ActivityDefinition.asNeeded[x]` is will have a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.extension:product</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.product|0.0.1-snapshot-3}
@@ -468,6 +557,29 @@
   </si>
   <si>
     <t>Identifies the food, drug or other product being consumed or supplied in the activity.</t>
+  </si>
+  <si>
+    <t>Note that the target element context `ActivityDefinition.product[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.
+Element `ActivityDefinition.product[x]` is mapped to FHIR R4 element `ActivityDefinition.product[x]`.
+Note that the target element context `ActivityDefinition.product[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.extension:productCanonical</t>
+  </si>
+  <si>
+    <t>productCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Ingredient,http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.extension:productReference</t>
+  </si>
+  <si>
+    <t>productReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Ingredient,http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
   </si>
   <si>
     <t>ActivityDefinition.modifierExtension</t>
@@ -1096,6 +1208,12 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>ActivityDefinition.kind.extension:kind</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.kind|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1106,7 +1224,7 @@
     <t>A description of the kind of resource the activity definition is representing. For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
   </si>
   <si>
-    <t>The kind element may only specify Request resource types to facilitate considering user input as part of processing the result of any automated clinical reasoning processes. To support creation of event resources, such as Observations, RiskAssessments, and DetectedIssues, use a Task resource with the focus of the task set to the event resource to be created. Note that the kind of resource to be created may determine what types of extensions are permitted.</t>
+    <t>Element `ActivityDefinition.kind` is mapped to FHIR R4 element `ActivityDefinition.kind`.</t>
   </si>
   <si>
     <t>ActivityDefinition.kind.value</t>
@@ -1263,11 +1381,20 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>ActivityDefinition.location.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.location|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ActivityDefinition.location from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ActivityDefinition.location` is mapped to FHIR R4 element `ActivityDefinition.location`.</t>
   </si>
   <si>
     <t>ActivityDefinition.location.reference</t>
@@ -1366,10 +1493,63 @@
     <t>ActivityDefinition.participant.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>ActivityDefinition.participant.extension:function</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant.function|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.participant.function from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates how the actor will be involved in the action - author, reviewer, witness, etc.</t>
+  </si>
+  <si>
+    <t>Element `ActivityDefinition.participant.function` is will have a context of ActivityDefinition.participant based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.participant.extension:typeCanonical</t>
+  </si>
+  <si>
+    <t>typeCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.participant.typeCanonical from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/CapabilityStatement in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.participant.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ActivityDefinition.participant.typeCanonical` is will have a context of ActivityDefinition.participant based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.participant.extension:typeReference</t>
+  </si>
+  <si>
+    <t>typeReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.participant.typeReference from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/DeviceDefinition,http://hl7.org/fhir/StructureDefinition/Endpoint,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.participant.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ActivityDefinition.participant.typeReference` is will have a context of ActivityDefinition.participant based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
   </si>
   <si>
     <t>ActivityDefinition.participant.modifierExtension</t>
@@ -1413,6 +1593,12 @@
     <t>ActivityDefinition.participant.type.extension</t>
   </si>
   <si>
+    <t>ActivityDefinition.participant.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant.type|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1420,6 +1606,9 @@
     <t>Cross-version extension for ActivityDefinition.participant.type from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `ActivityDefinition.participant.type` is mapped to FHIR R4 element `ActivityDefinition.participant.type`.</t>
+  </si>
+  <si>
     <t>ActivityDefinition.participant.type.value</t>
   </si>
   <si>
@@ -1545,11 +1734,20 @@
     <t>ActivityDefinition.specimenRequirement.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.specimenRequirement|0.0.1-snapshot-3}
-</t>
+    <t>ActivityDefinition.specimenRequirement.extension:specimenRequirement</t>
+  </si>
+  <si>
+    <t>specimenRequirement</t>
   </si>
   <si>
     <t>Cross-version extension for ActivityDefinition.specimenRequirement from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.specimenRequirement` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ActivityDefinition.specimenRequirement` is mapped to FHIR R4 element `ActivityDefinition.specimenRequirement`.</t>
   </si>
   <si>
     <t>ActivityDefinition.specimenRequirement.reference</t>
@@ -1586,13 +1784,22 @@
     <t>ActivityDefinition.observationRequirement.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.observationRequirement|0.0.1-snapshot-3}
-</t>
+    <t>ActivityDefinition.observationRequirement.extension:observationRequirement</t>
+  </si>
+  <si>
+    <t>observationRequirement</t>
   </si>
   <si>
     <t>Cross-version extension for ActivityDefinition.observationRequirement from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ObservationDefinition in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.observationRequirement` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ActivityDefinition.observationRequirement` is mapped to FHIR R4 element `ActivityDefinition.observationRequirement`.</t>
+  </si>
+  <si>
     <t>ActivityDefinition.observationRequirement.reference</t>
   </si>
   <si>
@@ -1620,11 +1827,17 @@
     <t>ActivityDefinition.observationResultRequirement.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.observationResultRequirement|0.0.1-snapshot-3}
-</t>
+    <t>ActivityDefinition.observationResultRequirement.extension:observationResultRequirement</t>
+  </si>
+  <si>
+    <t>observationResultRequirement</t>
   </si>
   <si>
     <t>Cross-version extension for ActivityDefinition.observationResultRequirement from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.observationResultRequirement` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ActivityDefinition.observationResultRequirement` is mapped to FHIR R4 element `ActivityDefinition.observationResultRequirement`.</t>
   </si>
   <si>
     <t>ActivityDefinition.observationResultRequirement.reference</t>
@@ -1671,6 +1884,12 @@
   </si>
   <si>
     <t>ActivityDefinition.dynamicValue.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ActivityDefinition.dynamicValue.modifierExtension</t>
@@ -2008,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN104"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2017,9 +2236,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.6875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="74.23828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="25.953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2027,7 +2246,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2987,7 +3206,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -3086,12 +3305,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3112,16 +3333,16 @@
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3180,7 +3401,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -3200,12 +3421,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3226,15 +3449,17 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -3292,7 +3517,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>137</v>
@@ -3312,46 +3537,46 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3399,7 +3624,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3408,7 +3633,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>137</v>
@@ -3417,7 +3642,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3428,12 +3653,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3451,23 +3678,21 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3515,28 +3740,28 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3544,12 +3769,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3558,7 +3785,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3567,23 +3794,21 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3631,7 +3856,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3640,32 +3865,34 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3683,19 +3910,19 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3745,28 +3972,28 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3774,12 +4001,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3797,23 +4026,21 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3861,25 +4088,25 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3890,12 +4117,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3913,19 +4142,19 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3975,25 +4204,25 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4004,12 +4233,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4033,12 +4264,14 @@
         <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4087,19 +4320,19 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -4116,21 +4349,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -4139,21 +4372,23 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4177,13 +4412,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4201,28 +4436,28 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4230,10 +4465,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4256,19 +4491,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4317,7 +4552,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4332,13 +4567,13 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4346,10 +4581,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4360,7 +4595,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4369,25 +4604,27 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4407,13 +4644,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4431,13 +4668,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4446,28 +4683,28 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4486,16 +4723,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4545,7 +4782,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4560,13 +4797,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4574,10 +4811,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4600,19 +4837,19 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4661,7 +4898,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4670,19 +4907,19 @@
         <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4690,10 +4927,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4704,7 +4941,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4716,16 +4953,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4775,13 +5012,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4790,10 +5027,10 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4804,10 +5041,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4827,20 +5064,18 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4889,7 +5124,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4904,10 +5139,10 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4918,10 +5153,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4929,35 +5164,33 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4981,13 +5214,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -5005,13 +5238,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -5020,13 +5253,13 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5034,10 +5267,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5048,7 +5281,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -5060,18 +5293,20 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5095,13 +5330,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -5119,13 +5354,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -5134,13 +5369,13 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5148,10 +5383,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5174,22 +5409,22 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="R28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5209,13 +5444,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5233,7 +5468,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5248,28 +5483,28 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5285,18 +5520,20 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5345,7 +5582,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5360,13 +5597,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5374,14 +5611,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5397,20 +5634,22 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5459,7 +5698,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5474,24 +5713,24 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5502,7 +5741,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5511,19 +5750,19 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5573,13 +5812,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5588,24 +5827,24 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5625,23 +5864,21 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5689,7 +5926,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5704,24 +5941,24 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5732,7 +5969,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5744,19 +5981,19 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5805,13 +6042,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5820,24 +6057,24 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5857,21 +6094,21 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5895,13 +6132,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5919,7 +6156,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5934,10 +6171,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5948,10 +6185,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5962,7 +6199,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5974,15 +6211,17 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6031,13 +6270,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -6046,24 +6285,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6074,7 +6313,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -6086,13 +6325,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6143,13 +6382,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -6161,7 +6400,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6172,21 +6411,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6198,16 +6437,18 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6255,13 +6496,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -6270,24 +6511,24 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6298,7 +6539,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6310,15 +6551,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6367,13 +6610,13 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -6382,16 +6625,16 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39">
@@ -6410,7 +6653,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6422,19 +6665,19 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6489,7 +6732,7 @@
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -6498,7 +6741,7 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>329</v>
@@ -6507,7 +6750,7 @@
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40">
@@ -6526,7 +6769,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6535,7 +6778,7 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>331</v>
@@ -6546,8 +6789,12 @@
       <c r="M40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6601,7 +6848,7 @@
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6610,24 +6857,24 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6638,7 +6885,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6647,21 +6894,21 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>293</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6685,13 +6932,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6709,13 +6956,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6727,7 +6974,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>341</v>
+        <v>211</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6738,10 +6985,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6752,7 +6999,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6764,13 +7011,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6821,25 +7068,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6850,10 +7097,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6861,7 +7108,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6876,13 +7123,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>132</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6921,17 +7168,19 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6943,7 +7192,7 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6960,10 +7209,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6974,7 +7223,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6986,17 +7235,15 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7045,7 +7292,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7054,16 +7301,16 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7074,10 +7321,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7088,7 +7335,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -7100,13 +7347,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7157,25 +7404,25 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7186,10 +7433,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7200,7 +7447,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7212,17 +7459,19 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7271,13 +7520,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -7289,7 +7538,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7300,10 +7549,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7314,7 +7563,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7323,23 +7572,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>258</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7363,37 +7608,37 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -7405,7 +7650,7 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7416,10 +7661,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7439,18 +7684,20 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7475,13 +7722,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7499,7 +7746,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7517,7 +7764,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7528,10 +7775,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7554,13 +7801,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7587,13 +7834,13 @@
         <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>77</v>
@@ -7611,7 +7858,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7623,7 +7870,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7640,10 +7887,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7654,29 +7901,27 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>132</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7713,31 +7958,29 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7754,12 +7997,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7780,18 +8025,18 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7845,19 +8090,19 @@
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7868,14 +8113,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7894,20 +8139,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7955,7 +8196,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7967,13 +8208,13 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7984,10 +8225,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8010,16 +8251,18 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8067,7 +8310,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8079,13 +8322,13 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -8096,10 +8339,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8107,11 +8350,11 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8119,19 +8362,23 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>132</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8155,49 +8402,49 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8208,10 +8455,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8234,17 +8481,15 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>402</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8269,13 +8514,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8293,19 +8538,19 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8322,10 +8567,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8345,20 +8590,18 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8383,13 +8626,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8407,7 +8650,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8416,7 +8659,7 @@
         <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>98</v>
@@ -8425,7 +8668,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8436,10 +8679,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8456,22 +8699,22 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8497,31 +8740,31 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8539,7 +8782,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8550,10 +8793,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8573,21 +8816,21 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>162</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8635,7 +8878,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8653,7 +8896,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>168</v>
+        <v>424</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8664,14 +8907,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8687,21 +8930,23 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8749,7 +8994,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8767,7 +9012,7 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>129</v>
+        <v>432</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8778,10 +9023,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8792,7 +9037,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8804,13 +9049,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>206</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8861,25 +9106,25 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8890,10 +9135,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8904,7 +9149,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8916,13 +9161,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>397</v>
+        <v>132</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8961,37 +9206,37 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -9002,21 +9247,23 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="D62" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -9028,16 +9275,16 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>150</v>
+        <v>443</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9087,7 +9334,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9105,7 +9352,7 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9116,46 +9363,44 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9203,19 +9448,19 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -9232,10 +9477,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9243,7 +9488,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>86</v>
@@ -9255,18 +9500,20 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9291,13 +9538,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9315,10 +9562,10 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>86</v>
@@ -9333,7 +9580,7 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>446</v>
+        <v>129</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9344,10 +9591,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9367,18 +9614,20 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>343</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9427,7 +9676,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>345</v>
+        <v>461</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9439,13 +9688,13 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9456,10 +9705,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9467,11 +9716,11 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9479,18 +9728,20 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>132</v>
+        <v>463</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9527,35 +9778,37 @@
         <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>347</v>
+        <v>466</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9566,10 +9819,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9580,7 +9833,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9592,13 +9845,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9649,7 +9902,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>347</v>
+        <v>467</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9658,16 +9911,16 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9678,10 +9931,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9704,13 +9957,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>353</v>
+        <v>434</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9761,7 +10014,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9779,7 +10032,7 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9790,10 +10043,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9804,7 +10057,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9816,13 +10069,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>132</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
+        <v>133</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9849,49 +10102,47 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>452</v>
+        <v>382</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9902,12 +10153,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9928,15 +10181,17 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9961,13 +10216,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -9985,25 +10240,25 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>458</v>
+        <v>382</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10014,14 +10269,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="D71" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10040,15 +10297,17 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -10097,25 +10356,25 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>464</v>
+        <v>382</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10126,12 +10385,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10140,7 +10401,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -10152,16 +10413,16 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10211,7 +10472,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10223,13 +10484,13 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10240,14 +10501,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10260,25 +10521,25 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>479</v>
+        <v>185</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>480</v>
+        <v>186</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10303,13 +10564,13 @@
         <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>482</v>
+        <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>77</v>
@@ -10327,7 +10588,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10339,13 +10600,13 @@
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>483</v>
+        <v>129</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10356,10 +10617,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10367,10 +10628,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10382,18 +10643,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>485</v>
+        <v>106</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10417,13 +10676,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10441,13 +10700,13 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
@@ -10459,7 +10718,7 @@
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10470,10 +10729,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10496,13 +10755,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10553,7 +10812,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10571,7 +10830,7 @@
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10582,10 +10841,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10593,7 +10852,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -10655,9 +10914,7 @@
       <c r="AB76" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AC76" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="AC76" s="2"/>
       <c r="AD76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10665,7 +10922,7 @@
         <v>135</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10694,12 +10951,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10708,7 +10967,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10720,15 +10979,17 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10777,7 +11038,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10786,7 +11047,7 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>137</v>
@@ -10806,10 +11067,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10829,20 +11090,18 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10891,7 +11150,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10900,16 +11159,16 @@
         <v>86</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10920,10 +11179,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10943,20 +11202,18 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10981,13 +11238,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>414</v>
+        <v>514</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>415</v>
+        <v>515</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -11005,7 +11262,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>416</v>
+        <v>511</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11023,7 +11280,7 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>129</v>
+        <v>516</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11034,10 +11291,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11057,20 +11314,18 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>162</v>
+        <v>518</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>418</v>
+        <v>519</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -11095,13 +11350,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>77</v>
+        <v>521</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -11119,7 +11374,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>421</v>
+        <v>517</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11137,7 +11392,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>168</v>
+        <v>522</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -11148,14 +11403,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>77</v>
+        <v>524</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11171,20 +11426,18 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>171</v>
+        <v>525</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>423</v>
+        <v>526</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11233,7 +11486,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>426</v>
+        <v>523</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11251,7 +11504,7 @@
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>129</v>
+        <v>528</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -11262,10 +11515,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11288,18 +11541,18 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11347,7 +11600,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11365,7 +11618,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>77</v>
+        <v>534</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11376,10 +11629,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11390,7 +11643,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11402,16 +11655,20 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>397</v>
+        <v>536</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11435,13 +11692,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>77</v>
+        <v>540</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11459,25 +11716,25 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>345</v>
+        <v>535</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>399</v>
+        <v>542</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
@@ -11488,10 +11745,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11499,7 +11756,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>79</v>
@@ -11514,16 +11771,18 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>131</v>
+        <v>544</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>132</v>
+        <v>545</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>133</v>
+        <v>546</v>
       </c>
       <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11559,19 +11818,19 @@
         <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>347</v>
+        <v>543</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11583,7 +11842,7 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -11600,10 +11859,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11614,7 +11873,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11626,13 +11885,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>504</v>
+        <v>206</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>505</v>
+        <v>434</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>500</v>
+        <v>435</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11683,25 +11942,25 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
@@ -11712,10 +11971,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11726,7 +11985,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11735,20 +11994,18 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11785,37 +12042,37 @@
         <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -11826,12 +12083,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="D87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11849,19 +12108,19 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>411</v>
+        <v>552</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>412</v>
+        <v>553</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>413</v>
+        <v>554</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11887,13 +12146,13 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -11911,25 +12170,25 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11940,10 +12199,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11966,16 +12225,16 @@
         <v>87</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12025,7 +12284,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12034,7 +12293,7 @@
         <v>86</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>98</v>
@@ -12043,7 +12302,7 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12054,10 +12313,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12080,16 +12339,16 @@
         <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12115,13 +12374,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -12139,7 +12398,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12168,10 +12427,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>510</v>
+        <v>557</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>510</v>
+        <v>557</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12182,7 +12441,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -12191,18 +12450,20 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>498</v>
+        <v>197</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12251,13 +12512,13 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
@@ -12269,7 +12530,7 @@
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
@@ -12280,10 +12541,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>513</v>
+        <v>558</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>513</v>
+        <v>558</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12303,18 +12564,20 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -12363,7 +12626,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>345</v>
+        <v>466</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12375,13 +12638,13 @@
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>399</v>
+        <v>129</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
@@ -12392,10 +12655,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>514</v>
+        <v>559</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>514</v>
+        <v>559</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12403,7 +12666,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12418,16 +12681,18 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>131</v>
+        <v>560</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>132</v>
+        <v>561</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>133</v>
+        <v>562</v>
       </c>
       <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12463,19 +12728,19 @@
         <v>77</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>347</v>
+        <v>559</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12487,7 +12752,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
@@ -12504,10 +12769,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12518,7 +12783,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12530,13 +12795,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>515</v>
+        <v>206</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>512</v>
+        <v>435</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12587,25 +12852,25 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12616,10 +12881,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12630,7 +12895,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -12639,20 +12904,18 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>405</v>
+        <v>132</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12689,37 +12952,37 @@
         <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -12730,12 +12993,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12753,19 +13018,19 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>411</v>
+        <v>568</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>412</v>
+        <v>569</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>413</v>
+        <v>570</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12791,13 +13056,13 @@
         <v>77</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>77</v>
@@ -12815,25 +13080,25 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -12844,10 +13109,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12870,16 +13135,16 @@
         <v>87</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -12929,7 +13194,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12938,7 +13203,7 @@
         <v>86</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>98</v>
@@ -12947,7 +13212,7 @@
         <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -12958,10 +13223,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12984,16 +13249,16 @@
         <v>87</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13019,13 +13284,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -13043,7 +13308,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13072,10 +13337,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13095,19 +13360,19 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>522</v>
+        <v>197</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>525</v>
+        <v>460</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13157,7 +13422,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13175,7 +13440,7 @@
         <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
@@ -13186,10 +13451,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13200,7 +13465,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>77</v>
@@ -13209,19 +13474,19 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>428</v>
+        <v>206</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>529</v>
+        <v>465</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13271,13 +13536,13 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>77</v>
@@ -13300,10 +13565,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>530</v>
+        <v>575</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13314,7 +13579,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
@@ -13326,13 +13591,13 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>171</v>
+        <v>560</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>397</v>
+        <v>576</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>398</v>
+        <v>577</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13383,25 +13648,25 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>345</v>
+        <v>575</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
@@ -13412,21 +13677,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
@@ -13438,7 +13703,7 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>434</v>
@@ -13446,9 +13711,7 @@
       <c r="M101" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N101" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -13497,25 +13760,25 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -13526,14 +13789,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>532</v>
+        <v>579</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>532</v>
+        <v>579</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -13546,26 +13809,22 @@
         <v>77</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
       </c>
@@ -13601,19 +13860,19 @@
         <v>77</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13631,7 +13890,7 @@
         <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>77</v>
@@ -13642,18 +13901,20 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>86</v>
@@ -13668,16 +13929,16 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>171</v>
+        <v>482</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>536</v>
+        <v>583</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13727,25 +13988,25 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>533</v>
+        <v>382</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>77</v>
@@ -13756,10 +14017,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13767,7 +14028,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>86</v>
@@ -13779,19 +14040,19 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>538</v>
+        <v>206</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>539</v>
+        <v>445</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>540</v>
+        <v>446</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>541</v>
+        <v>447</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13841,16 +14102,16 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>98</v>
@@ -13865,6 +14126,1146 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ActivityDefinition.xlsx
+++ b/StructureDefinition-profile-ActivityDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4140" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9681585-06:00</t>
+    <t>2026-02-17T14:42:26.7203894-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `ActivityDefinition.versionAlgorithm[x]` is will have a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+    <t>Element `ActivityDefinition.versionAlgorithm[x]` has a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -483,7 +483,7 @@
   </si>
   <si>
     <t>Note that the target element context `ActivityDefinition.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.
-Element `ActivityDefinition.subject[x]` is mapped to FHIR R4 element `ActivityDefinition.subject[x]`.
+Element `ActivityDefinition.subject[x]` has is mapped to FHIR R4 element `ActivityDefinition.subject[x]`, but has no comparisons.
 Note that the target element context `ActivityDefinition.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.</t>
   </si>
   <si>
@@ -521,7 +521,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `ActivityDefinition.copyrightLabel` is will have a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+    <t>Element `ActivityDefinition.copyrightLabel` has a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
   </si>
   <si>
     <t>ActivityDefinition.extension:asNeeded</t>
@@ -540,7 +540,7 @@
     <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>Element `ActivityDefinition.asNeeded[x]` is will have a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+    <t>Element `ActivityDefinition.asNeeded[x]` has a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
   </si>
   <si>
     <t>ActivityDefinition.extension:product</t>
@@ -560,7 +560,7 @@
   </si>
   <si>
     <t>Note that the target element context `ActivityDefinition.product[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.
-Element `ActivityDefinition.product[x]` is mapped to FHIR R4 element `ActivityDefinition.product[x]`.
+Element `ActivityDefinition.product[x]` has is mapped to FHIR R4 element `ActivityDefinition.product[x]`, but has no comparisons.
 Note that the target element context `ActivityDefinition.product[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.</t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
     <t>A description of the kind of resource the activity definition is representing. For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
   </si>
   <si>
-    <t>Element `ActivityDefinition.kind` is mapped to FHIR R4 element `ActivityDefinition.kind`.</t>
+    <t>Element `ActivityDefinition.kind` has is mapped to FHIR R4 element `ActivityDefinition.kind`, but has no comparisons.</t>
   </si>
   <si>
     <t>ActivityDefinition.kind.value</t>
@@ -1394,7 +1394,7 @@
     <t>Cross-version extension for ActivityDefinition.location from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ActivityDefinition.location` is mapped to FHIR R4 element `ActivityDefinition.location`.</t>
+    <t>Element `ActivityDefinition.location` has is mapped to FHIR R4 element `ActivityDefinition.location`, but has no comparisons.</t>
   </si>
   <si>
     <t>ActivityDefinition.location.reference</t>
@@ -1493,253 +1493,189 @@
     <t>ActivityDefinition.participant.extension</t>
   </si>
   <si>
-    <t>ActivityDefinition.participant.extension:function</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant.function|0.0.1-snapshot-3}
+    <t>ActivityDefinition.participant.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ActivityDefinition.participant.function from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates how the actor will be involved in the action - author, reviewer, witness, etc.</t>
-  </si>
-  <si>
-    <t>Element `ActivityDefinition.participant.function` is will have a context of ActivityDefinition.participant based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.participant.extension:typeCanonical</t>
-  </si>
-  <si>
-    <t>typeCanonical</t>
+    <t>Cross-version extension for ActivityDefinition.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ActivityDefinition.participant` has is mapped to FHIR R4 element `ActivityDefinition.participant`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.participant.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.participant.type</t>
+  </si>
+  <si>
+    <t>patient | practitioner | related-person | device</t>
+  </si>
+  <si>
+    <t>The type of participant in the action.</t>
+  </si>
+  <si>
+    <t>The type of participant in the activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.0.1</t>
+  </si>
+  <si>
+    <t>.role.classCode</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.participant.role</t>
+  </si>
+  <si>
+    <t>E.g. Nurse, Surgeon, Parent, etc.</t>
+  </si>
+  <si>
+    <t>The role the participant should play in performing the described action.</t>
+  </si>
+  <si>
+    <t>Defines roles played by participants for the action.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-role|4.0.1</t>
+  </si>
+  <si>
+    <t>.role.code</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.product[x]</t>
+  </si>
+  <si>
+    <t>Reference(Medication|4.0.1|Substance|4.0.1)
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>What's administered/supplied</t>
+  </si>
+  <si>
+    <t>Code describing the type of substance or medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dose
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+</t>
+  </si>
+  <si>
+    <t>How much is administered/consumed/supplied</t>
+  </si>
+  <si>
+    <t>Identifies the quantity expected to be consumed at once (per dose, per meal, etc.).</t>
+  </si>
+  <si>
+    <t>.quantity {for classCode=SPLY}</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.dosage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosage
+</t>
+  </si>
+  <si>
+    <t>Detailed dosage instructions</t>
+  </si>
+  <si>
+    <t>Provides detailed dosage instructions in the same way that they are described for MedicationRequest resources.</t>
+  </si>
+  <si>
+    <t>If a dosage instruction is used, the definition should not specify timing or quantity.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM; moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.bodySite</t>
+  </si>
+  <si>
+    <t>What part of body to perform on</t>
+  </si>
+  <si>
+    <t>Indicates the sites on the subject's body where the procedure should be performed (I.e. the target sites).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in the code found in ServiceRequest.type.</t>
+  </si>
+  <si>
+    <t>Knowing where the procedure is made is important for tracking if multiple sites are possible.</t>
+  </si>
+  <si>
+    <t>A code that identifies the anatomical location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+  </si>
+  <si>
+    <t>.targetSiteCode {for classCode=PROC, SBADM}</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.specimenRequirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(SpecimenDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>What specimens are required to perform this action</t>
+  </si>
+  <si>
+    <t>Defines specimen requirements for the action to be performed, such as required specimens for a lab test.</t>
+  </si>
+  <si>
+    <t>Needed to represent lab order definitions.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.specimenRequirement.id</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.specimenRequirement.extension</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.specimenRequirement.extension:specimenRequirement</t>
+  </si>
+  <si>
+    <t>specimenRequirement</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ActivityDefinition.participant.typeCanonical from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/CapabilityStatement in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.participant.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ActivityDefinition.participant.typeCanonical` is will have a context of ActivityDefinition.participant based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.participant.extension:typeReference</t>
-  </si>
-  <si>
-    <t>typeReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ActivityDefinition.participant.typeReference from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/DeviceDefinition,http://hl7.org/fhir/StructureDefinition/Endpoint,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.participant.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ActivityDefinition.participant.typeReference` is will have a context of ActivityDefinition.participant based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.participant.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.participant.type</t>
-  </si>
-  <si>
-    <t>patient | practitioner | related-person | device</t>
-  </si>
-  <si>
-    <t>The type of participant in the action.</t>
-  </si>
-  <si>
-    <t>The type of participant in the activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.0.1</t>
-  </si>
-  <si>
-    <t>.role.classCode</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.participant.type.id</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.participant.type.extension</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.participant.type.extension:type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant.type|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ActivityDefinition.participant.type from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ActivityDefinition.participant.type` is mapped to FHIR R4 element `ActivityDefinition.participant.type`.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.participant.type.value</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.participant.role</t>
-  </si>
-  <si>
-    <t>E.g. Nurse, Surgeon, Parent, etc.</t>
-  </si>
-  <si>
-    <t>The role the participant should play in performing the described action.</t>
-  </si>
-  <si>
-    <t>Defines roles played by participants for the action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-role|4.0.1</t>
-  </si>
-  <si>
-    <t>.role.code</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.product[x]</t>
-  </si>
-  <si>
-    <t>Reference(Medication|4.0.1|Substance|4.0.1)
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>What's administered/supplied</t>
-  </si>
-  <si>
-    <t>Code describing the type of substance or medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dose
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
-</t>
-  </si>
-  <si>
-    <t>How much is administered/consumed/supplied</t>
-  </si>
-  <si>
-    <t>Identifies the quantity expected to be consumed at once (per dose, per meal, etc.).</t>
-  </si>
-  <si>
-    <t>.quantity {for classCode=SPLY}</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.dosage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosage
-</t>
-  </si>
-  <si>
-    <t>Detailed dosage instructions</t>
-  </si>
-  <si>
-    <t>Provides detailed dosage instructions in the same way that they are described for MedicationRequest resources.</t>
-  </si>
-  <si>
-    <t>If a dosage instruction is used, the definition should not specify timing or quantity.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM; moodCode=DEFN]</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.bodySite</t>
-  </si>
-  <si>
-    <t>What part of body to perform on</t>
-  </si>
-  <si>
-    <t>Indicates the sites on the subject's body where the procedure should be performed (I.e. the target sites).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in the code found in ServiceRequest.type.</t>
-  </si>
-  <si>
-    <t>Knowing where the procedure is made is important for tracking if multiple sites are possible.</t>
-  </si>
-  <si>
-    <t>A code that identifies the anatomical location.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
-  </si>
-  <si>
-    <t>.targetSiteCode {for classCode=PROC, SBADM}</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(SpecimenDefinition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>What specimens are required to perform this action</t>
-  </si>
-  <si>
-    <t>Defines specimen requirements for the action to be performed, such as required specimens for a lab test.</t>
-  </si>
-  <si>
-    <t>Needed to represent lab order definitions.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement.id</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement.extension</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement.extension:specimenRequirement</t>
-  </si>
-  <si>
-    <t>specimenRequirement</t>
-  </si>
-  <si>
     <t>Cross-version extension for ActivityDefinition.specimenRequirement from R5 for use in FHIR R4</t>
   </si>
   <si>
@@ -1747,7 +1683,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.specimenRequirement` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ActivityDefinition.specimenRequirement` is mapped to FHIR R4 element `ActivityDefinition.specimenRequirement`.</t>
+Element `ActivityDefinition.specimenRequirement` has is mapped to FHIR R4 element `ActivityDefinition.specimenRequirement`, but has no comparisons.</t>
   </si>
   <si>
     <t>ActivityDefinition.specimenRequirement.reference</t>
@@ -1797,7 +1733,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.observationRequirement` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ActivityDefinition.observationRequirement` is mapped to FHIR R4 element `ActivityDefinition.observationRequirement`.</t>
+Element `ActivityDefinition.observationRequirement` has is mapped to FHIR R4 element `ActivityDefinition.observationRequirement`, but has no comparisons.</t>
   </si>
   <si>
     <t>ActivityDefinition.observationRequirement.reference</t>
@@ -1837,7 +1773,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.observationResultRequirement` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ActivityDefinition.observationResultRequirement` is mapped to FHIR R4 element `ActivityDefinition.observationResultRequirement`.</t>
+Element `ActivityDefinition.observationResultRequirement` has is mapped to FHIR R4 element `ActivityDefinition.observationResultRequirement`, but has no comparisons.</t>
   </si>
   <si>
     <t>ActivityDefinition.observationResultRequirement.reference</t>
@@ -1886,10 +1822,20 @@
     <t>ActivityDefinition.dynamicValue.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>ActivityDefinition.dynamicValue.extension:dynamicValue</t>
+  </si>
+  <si>
+    <t>dynamicValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.dynamicValue|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.dynamicValue from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ActivityDefinition.dynamicValue` has is mapped to FHIR R4 element `ActivityDefinition.dynamicValue`, but has no comparisons.</t>
   </si>
   <si>
     <t>ActivityDefinition.dynamicValue.modifierExtension</t>
@@ -2227,7 +2173,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2246,7 +2192,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.34765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -10169,7 +10115,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10187,10 +10133,10 @@
         <v>477</v>
       </c>
       <c r="M70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10269,46 +10215,46 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10356,7 +10302,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>382</v>
+        <v>483</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10374,7 +10320,7 @@
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10385,20 +10331,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>86</v>
@@ -10413,17 +10357,15 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>488</v>
+        <v>106</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -10448,13 +10390,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>77</v>
+        <v>488</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -10472,25 +10414,25 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>382</v>
+        <v>484</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10501,46 +10443,42 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10564,13 +10502,13 @@
         <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>77</v>
@@ -10588,25 +10526,25 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>129</v>
+        <v>495</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10617,10 +10555,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10628,7 +10566,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>86</v>
@@ -10643,13 +10581,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>106</v>
+        <v>497</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>498</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>499</v>
+        <v>173</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10676,14 +10614,14 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10700,10 +10638,10 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>86</v>
@@ -10718,7 +10656,7 @@
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10729,14 +10667,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>503</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10755,13 +10693,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>206</v>
+        <v>504</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>378</v>
+        <v>505</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10812,7 +10750,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>380</v>
+        <v>502</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10824,13 +10762,13 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10841,10 +10779,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10867,15 +10805,17 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>131</v>
+        <v>509</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>132</v>
+        <v>510</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10912,17 +10852,19 @@
         <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC76" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>382</v>
+        <v>508</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10934,13 +10876,13 @@
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10951,14 +10893,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10967,7 +10907,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10979,18 +10919,20 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>507</v>
+        <v>293</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -11014,13 +10956,13 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>77</v>
+        <v>519</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -11038,7 +10980,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>382</v>
+        <v>514</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11047,16 +10989,16 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>77</v>
+        <v>521</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -11067,10 +11009,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11081,7 +11023,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -11093,16 +11035,18 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>206</v>
+        <v>523</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>390</v>
+        <v>524</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>390</v>
+        <v>525</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11150,19 +11094,19 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>391</v>
+        <v>522</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -11179,10 +11123,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11205,13 +11149,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>512</v>
+        <v>434</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>513</v>
+        <v>435</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11238,13 +11182,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>514</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -11262,7 +11206,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>511</v>
+        <v>380</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11274,13 +11218,13 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>516</v>
+        <v>436</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11291,10 +11235,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11305,7 +11249,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -11317,13 +11261,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>518</v>
+        <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>519</v>
+        <v>132</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11350,49 +11294,49 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>520</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>517</v>
+        <v>382</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>522</v>
+        <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -11403,14 +11347,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="D81" t="s" s="2">
-        <v>524</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11429,15 +11375,17 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11486,25 +11434,25 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>523</v>
+        <v>382</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>528</v>
+        <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -11515,10 +11463,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11529,7 +11477,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11538,19 +11486,19 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>530</v>
+        <v>206</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>531</v>
+        <v>445</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>532</v>
+        <v>446</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>533</v>
+        <v>447</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11600,16 +11548,16 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>529</v>
+        <v>448</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>98</v>
@@ -11618,7 +11566,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>534</v>
+        <v>129</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11629,10 +11577,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11643,7 +11591,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11652,23 +11600,21 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>536</v>
+        <v>451</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>537</v>
+        <v>452</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11692,13 +11638,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>341</v>
+        <v>250</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>540</v>
+        <v>454</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>541</v>
+        <v>455</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11716,13 +11662,13 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>535</v>
+        <v>456</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
@@ -11734,7 +11680,7 @@
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>542</v>
+        <v>129</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
@@ -11745,10 +11691,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11759,7 +11705,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -11768,21 +11714,21 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>544</v>
+        <v>197</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11830,13 +11776,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>543</v>
+        <v>461</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -11848,7 +11794,7 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
@@ -11859,10 +11805,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11882,18 +11828,20 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>206</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11942,7 +11890,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11954,13 +11902,13 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
@@ -11971,10 +11919,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11997,16 +11945,18 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>131</v>
+        <v>540</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>132</v>
+        <v>541</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>133</v>
+        <v>542</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
       </c>
@@ -12042,19 +11992,19 @@
         <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>382</v>
+        <v>539</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12066,7 +12016,7 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
@@ -12083,14 +12033,12 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12111,17 +12059,15 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>482</v>
+        <v>206</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>552</v>
+        <v>434</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
@@ -12170,25 +12116,25 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -12199,10 +12145,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12213,7 +12159,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -12222,20 +12168,18 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>445</v>
+        <v>132</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -12272,37 +12216,37 @@
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12313,12 +12257,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12336,19 +12282,19 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>100</v>
+        <v>531</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>451</v>
+        <v>548</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>452</v>
+        <v>549</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>453</v>
+        <v>550</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12374,13 +12320,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -12398,25 +12344,25 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12427,10 +12373,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12453,16 +12399,16 @@
         <v>87</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12512,7 +12458,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12521,7 +12467,7 @@
         <v>86</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>98</v>
@@ -12530,7 +12476,7 @@
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
@@ -12541,10 +12487,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12567,16 +12513,16 @@
         <v>87</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12602,13 +12548,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12626,7 +12572,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12655,10 +12601,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12669,7 +12615,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>77</v>
@@ -12678,21 +12624,21 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>560</v>
+        <v>197</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>561</v>
+        <v>458</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12740,13 +12686,13 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>559</v>
+        <v>461</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>77</v>
@@ -12758,7 +12704,7 @@
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -12769,10 +12715,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12792,18 +12738,20 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>206</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12852,7 +12800,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12864,13 +12812,13 @@
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12881,10 +12829,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12907,13 +12855,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>131</v>
+        <v>540</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>132</v>
+        <v>556</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>133</v>
+        <v>557</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12952,19 +12900,19 @@
         <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>382</v>
+        <v>555</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12976,7 +12924,7 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
@@ -12993,14 +12941,12 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
         <v>77</v>
       </c>
@@ -13021,17 +12967,15 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>482</v>
+        <v>206</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>568</v>
+        <v>434</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -13080,25 +13024,25 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -13109,10 +13053,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13123,7 +13067,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
@@ -13132,20 +13076,18 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>445</v>
+        <v>132</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -13182,37 +13124,37 @@
         <v>77</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -13223,12 +13165,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="D97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13246,19 +13190,19 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>100</v>
+        <v>531</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>451</v>
+        <v>562</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>452</v>
+        <v>549</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>453</v>
+        <v>563</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13284,13 +13228,13 @@
         <v>77</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>77</v>
@@ -13308,25 +13252,25 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13337,10 +13281,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13363,16 +13307,16 @@
         <v>87</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13422,7 +13366,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13431,7 +13375,7 @@
         <v>86</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>98</v>
@@ -13440,7 +13384,7 @@
         <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
@@ -13451,10 +13395,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13477,16 +13421,16 @@
         <v>87</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13512,13 +13456,13 @@
         <v>77</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -13536,7 +13480,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13565,10 +13509,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13579,7 +13523,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
@@ -13588,18 +13532,20 @@
         <v>77</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>560</v>
+        <v>197</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>576</v>
+        <v>458</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13648,13 +13594,13 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>575</v>
+        <v>461</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>77</v>
@@ -13666,7 +13612,7 @@
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
@@ -13677,10 +13623,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13700,18 +13646,20 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>206</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -13760,7 +13708,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13772,13 +13720,13 @@
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -13789,10 +13737,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13803,7 +13751,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
@@ -13815,15 +13763,17 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>131</v>
+        <v>569</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>132</v>
+        <v>570</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
@@ -13860,37 +13810,37 @@
         <v>77</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>382</v>
+        <v>568</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>77</v>
@@ -13901,14 +13851,12 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
         <v>77</v>
       </c>
@@ -13917,7 +13865,7 @@
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>77</v>
@@ -13929,16 +13877,16 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13988,7 +13936,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>382</v>
+        <v>573</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14000,13 +13948,13 @@
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>77</v>
@@ -14017,10 +13965,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14040,20 +13988,18 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>206</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>77</v>
@@ -14102,7 +14048,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14111,16 +14057,16 @@
         <v>86</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>129</v>
+        <v>436</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>77</v>
@@ -14131,10 +14077,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14145,7 +14091,7 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>77</v>
@@ -14154,20 +14100,18 @@
         <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>451</v>
+        <v>132</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -14192,49 +14136,47 @@
         <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC105" s="2"/>
       <c r="AD105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>77</v>
@@ -14245,12 +14187,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="D106" t="s" s="2">
         <v>77</v>
       </c>
@@ -14259,7 +14203,7 @@
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>77</v>
@@ -14268,19 +14212,19 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>197</v>
+        <v>581</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>458</v>
+        <v>582</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>459</v>
+        <v>575</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>460</v>
+        <v>583</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14330,25 +14274,25 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>461</v>
+        <v>382</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>77</v>
@@ -14359,44 +14303,46 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>77</v>
+        <v>480</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O107" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14444,19 +14390,19 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>77</v>
@@ -14473,10 +14419,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14484,7 +14430,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>86</v>
@@ -14499,16 +14445,16 @@
         <v>77</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>589</v>
+        <v>206</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14558,10 +14504,10 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>86</v>
@@ -14587,10 +14533,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14598,10 +14544,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>77</v>
@@ -14613,16 +14559,16 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>468</v>
+        <v>590</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -14672,13 +14618,13 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>77</v>
@@ -14696,576 +14642,6 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN114" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ActivityDefinition.xlsx
+++ b/StructureDefinition-profile-ActivityDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7203894-06:00</t>
+    <t>2026-02-20T11:59:20.7200233-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ActivityDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ActivityDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,36 +443,13 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ActivityDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.versionAlgorithm|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ActivityDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Element `ActivityDefinition.versionAlgorithm[x]` has a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ActivityDefinition.extension:subject</t>
   </si>
   <si>
     <t>subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.subject|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.subject}
 </t>
   </si>
   <si>
@@ -487,6 +464,10 @@
 Note that the target element context `ActivityDefinition.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>ActivityDefinition.extension:subjectCanonical</t>
   </si>
   <si>
@@ -505,35 +486,16 @@
     <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/AdministrableProductDefinition,http://hl7.org/fhir/StructureDefinition/EvidenceVariable,http://hl7.org/fhir/StructureDefinition/ManufacturedItemDefinition,http://hl7.org/fhir/StructureDefinition/MedicinalProductDefinition,http://hl7.org/fhir/StructureDefinition/PackagedProductDefinition,http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
   </si>
   <si>
-    <t>ActivityDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.copyrightLabel|0.0.1-snapshot-3}
+    <t>ActivityDefinition.extension:asNeeded</t>
+  </si>
+  <si>
+    <t>asNeeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.asNeeded}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ActivityDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `ActivityDefinition.copyrightLabel` has a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.extension:asNeeded</t>
-  </si>
-  <si>
-    <t>asNeeded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.asNeeded|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for ActivityDefinition.asNeeded[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
@@ -549,7 +511,7 @@
     <t>product</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.product|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.product}
 </t>
   </si>
   <si>
@@ -582,6 +544,46 @@
     <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Ingredient,http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
   </si>
   <si>
+    <t>ActivityDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `ActivityDefinition.copyrightLabel` has a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `ActivityDefinition.versionAlgorithm[x]` has a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
+  </si>
+  <si>
     <t>ActivityDefinition.modifierExtension</t>
   </si>
   <si>
@@ -1214,7 +1216,7 @@
     <t>kind</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.kind|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.kind}
 </t>
   </si>
   <si>
@@ -1387,7 +1389,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.location|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.location}
 </t>
   </si>
   <si>
@@ -1499,7 +1501,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant}
 </t>
   </si>
   <si>
@@ -1672,7 +1674,7 @@
     <t>specimenRequirement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+    <t xml:space="preserve">Extension {alternate-canonical}
 </t>
   </si>
   <si>
@@ -1828,7 +1830,7 @@
     <t>dynamicValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.dynamicValue|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.dynamicValue}
 </t>
   </si>
   <si>
@@ -2192,7 +2194,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.34765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.40625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3395,16 +3397,16 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3483,13 +3485,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
@@ -3511,16 +3513,16 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3599,13 +3601,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -3627,16 +3629,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3859,16 +3861,16 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3947,13 +3949,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>77</v>
@@ -3975,16 +3977,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4063,13 +4065,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
@@ -4097,7 +4099,7 @@
         <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>174</v>
@@ -4159,7 +4161,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>137</v>
@@ -4179,13 +4181,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -4207,16 +4209,16 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4275,7 +4277,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>137</v>
@@ -10587,7 +10589,7 @@
         <v>498</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>

--- a/StructureDefinition-profile-ActivityDefinition.xlsx
+++ b/StructureDefinition-profile-ActivityDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="555">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7200233-06:00</t>
+    <t>2026-02-21T13:36:54.1183811-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ActivityDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ActivityDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.subject}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.subject|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -460,7 +460,7 @@
   </si>
   <si>
     <t>Note that the target element context `ActivityDefinition.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.
-Element `ActivityDefinition.subject[x]` has is mapped to FHIR R4 element `ActivityDefinition.subject[x]`, but has no comparisons.
+Element `ActivityDefinition.subject[x]` is mapped to FHIR R4 element `ActivityDefinition.subject[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `ActivityDefinition.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.</t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>asNeeded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.asNeeded}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.asNeeded|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>product</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.product}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.product|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -522,7 +522,7 @@
   </si>
   <si>
     <t>Note that the target element context `ActivityDefinition.product[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.
-Element `ActivityDefinition.product[x]` has is mapped to FHIR R4 element `ActivityDefinition.product[x]`, but has no comparisons.
+Element `ActivityDefinition.product[x]` is mapped to FHIR R4 element `ActivityDefinition.product[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `ActivityDefinition.product[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ActivityDefinition`.</t>
   </si>
   <si>
@@ -542,46 +542,6 @@
   </si>
   <si>
     <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Ingredient,http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ActivityDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `ActivityDefinition.copyrightLabel` has a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ActivityDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `ActivityDefinition.versionAlgorithm[x]` has a context of ActivityDefinition based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
   </si>
   <si>
     <t>ActivityDefinition.modifierExtension</t>
@@ -1216,7 +1176,7 @@
     <t>kind</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.kind}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.kind|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1226,7 +1186,7 @@
     <t>A description of the kind of resource the activity definition is representing. For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
   </si>
   <si>
-    <t>Element `ActivityDefinition.kind` has is mapped to FHIR R4 element `ActivityDefinition.kind`, but has no comparisons.</t>
+    <t>Element `ActivityDefinition.kind` is mapped to FHIR R4 element `ActivityDefinition.kind` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ActivityDefinition.kind.value</t>
@@ -1389,14 +1349,14 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.location}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.location|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for ActivityDefinition.location from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `ActivityDefinition.location` has is mapped to FHIR R4 element `ActivityDefinition.location`, but has no comparisons.</t>
+    <t>Element `ActivityDefinition.location` is mapped to FHIR R4 element `ActivityDefinition.location` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ActivityDefinition.location.reference</t>
@@ -1495,20 +1455,23 @@
     <t>ActivityDefinition.participant.extension</t>
   </si>
   <si>
-    <t>ActivityDefinition.participant.extension:participant</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant}
+    <t>ActivityDefinition.participant.extension:function</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant.function|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ActivityDefinition.participant from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ActivityDefinition.participant` has is mapped to FHIR R4 element `ActivityDefinition.participant`, but has no comparisons.</t>
+    <t>Cross-version extension for ActivityDefinition.participant.function from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates how the actor will be involved in the action - author, reviewer, witness, etc.</t>
+  </si>
+  <si>
+    <t>Element `ActivityDefinition.participant.function` has a context of ActivityDefinition.participant based on following the parent source element upwards and mapping to `ActivityDefinition`.</t>
   </si>
   <si>
     <t>ActivityDefinition.participant.modifierExtension</t>
@@ -1546,6 +1509,31 @@
     <t>.role.classCode</t>
   </si>
   <si>
+    <t>ActivityDefinition.participant.type.id</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.participant.type.extension</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.participant.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.participant.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ActivityDefinition.participant.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ActivityDefinition.participant.type` is mapped to FHIR R4 element `ActivityDefinition.participant.type` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.participant.type.value</t>
+  </si>
+  <si>
     <t>ActivityDefinition.participant.role</t>
   </si>
   <si>
@@ -1662,44 +1650,6 @@
     <t>Needed to represent lab order definitions.</t>
   </si>
   <si>
-    <t>ActivityDefinition.specimenRequirement.id</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement.extension</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement.extension:specimenRequirement</t>
-  </si>
-  <si>
-    <t>specimenRequirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ActivityDefinition.specimenRequirement from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/SpecimenDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.specimenRequirement` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ActivityDefinition.specimenRequirement` has is mapped to FHIR R4 element `ActivityDefinition.specimenRequirement`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement.reference</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement.type</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement.identifier</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.specimenRequirement.display</t>
-  </si>
-  <si>
     <t>ActivityDefinition.observationRequirement</t>
   </si>
   <si>
@@ -1716,40 +1666,6 @@
     <t>Needed to represent observation definitions.</t>
   </si>
   <si>
-    <t>ActivityDefinition.observationRequirement.id</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationRequirement.extension</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationRequirement.extension:observationRequirement</t>
-  </si>
-  <si>
-    <t>observationRequirement</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ActivityDefinition.observationRequirement from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ObservationDefinition in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.observationRequirement` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ActivityDefinition.observationRequirement` has is mapped to FHIR R4 element `ActivityDefinition.observationRequirement`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationRequirement.reference</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationRequirement.type</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationRequirement.identifier</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationRequirement.display</t>
-  </si>
-  <si>
     <t>ActivityDefinition.observationResultRequirement</t>
   </si>
   <si>
@@ -1757,37 +1673,6 @@
   </si>
   <si>
     <t>Defines the observations that are expected to be produced by the action.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationResultRequirement.id</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationResultRequirement.extension</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationResultRequirement.extension:observationResultRequirement</t>
-  </si>
-  <si>
-    <t>observationResultRequirement</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ActivityDefinition.observationResultRequirement from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ActivityDefinition.observationResultRequirement` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ActivityDefinition.observationResultRequirement` has is mapped to FHIR R4 element `ActivityDefinition.observationResultRequirement`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationResultRequirement.reference</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationResultRequirement.type</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationResultRequirement.identifier</t>
-  </si>
-  <si>
-    <t>ActivityDefinition.observationResultRequirement.display</t>
   </si>
   <si>
     <t>ActivityDefinition.transform</t>
@@ -1824,20 +1709,10 @@
     <t>ActivityDefinition.dynamicValue.extension</t>
   </si>
   <si>
-    <t>ActivityDefinition.dynamicValue.extension:dynamicValue</t>
-  </si>
-  <si>
-    <t>dynamicValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ActivityDefinition.dynamicValue}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ActivityDefinition.dynamicValue from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ActivityDefinition.dynamicValue` has is mapped to FHIR R4 element `ActivityDefinition.dynamicValue`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ActivityDefinition.dynamicValue.modifierExtension</t>
@@ -2175,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2184,9 +2059,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="41.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.78515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2194,7 +2069,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4068,43 +3943,43 @@
         <v>169</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -4152,7 +4027,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4170,7 +4045,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4181,14 +4056,12 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C18" t="s" s="2">
         <v>176</v>
       </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4206,21 +4079,23 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -4268,28 +4143,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -4297,14 +4172,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4317,25 +4192,25 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J19" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4384,7 +4259,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4396,27 +4271,27 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4439,20 +4314,18 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4500,7 +4373,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4515,13 +4388,13 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4529,10 +4402,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4543,7 +4416,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4555,19 +4428,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4616,39 +4489,39 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4671,16 +4544,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4730,7 +4603,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4745,13 +4618,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4782,10 +4655,10 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>214</v>
@@ -4793,12 +4666,8 @@
       <c r="M23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4855,7 +4724,7 @@
         <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>98</v>
@@ -4864,7 +4733,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4875,10 +4744,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4886,7 +4755,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -4895,22 +4764,22 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4936,13 +4805,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4960,10 +4829,10 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>86</v>
@@ -4981,7 +4850,7 @@
         <v>224</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4989,10 +4858,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5012,19 +4881,23 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -5072,7 +4945,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5087,13 +4960,13 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -5101,10 +4974,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5112,7 +4985,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
@@ -5121,28 +4994,28 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="R26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5162,34 +5035,34 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -5201,13 +5074,13 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5215,14 +5088,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5241,20 +5114,18 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5302,7 +5173,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5317,13 +5188,13 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5331,10 +5202,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5354,25 +5225,27 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q28" t="s" s="2">
-        <v>249</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5392,31 +5265,31 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5431,13 +5304,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5445,21 +5318,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5471,16 +5344,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5530,13 +5403,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5545,13 +5418,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5559,10 +5432,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5585,20 +5458,18 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5646,7 +5517,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5661,13 +5532,13 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5675,10 +5546,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5701,18 +5572,20 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5760,7 +5633,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5775,10 +5648,10 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5789,10 +5662,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5803,7 +5676,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5815,16 +5688,16 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5850,13 +5723,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5874,13 +5747,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5889,10 +5762,10 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5903,10 +5776,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5917,7 +5790,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5926,23 +5799,21 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5990,13 +5861,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -6005,24 +5876,24 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6033,7 +5904,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -6042,20 +5913,18 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -6080,13 +5949,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -6104,13 +5973,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -6119,10 +5988,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6133,14 +6002,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6159,18 +6028,18 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6218,7 +6087,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6233,24 +6102,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6273,15 +6142,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6330,7 +6201,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6345,28 +6216,28 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6385,7 +6256,7 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>312</v>
@@ -6393,9 +6264,11 @@
       <c r="M37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6444,7 +6317,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6459,24 +6332,24 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6496,21 +6369,23 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6558,7 +6433,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6573,24 +6448,24 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6601,7 +6476,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6613,19 +6488,17 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6650,13 +6523,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6674,13 +6547,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -6689,24 +6562,24 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6717,7 +6590,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6726,23 +6599,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="O40" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6790,13 +6659,13 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6805,24 +6674,24 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6845,18 +6714,16 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6880,13 +6747,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6904,7 +6771,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6922,7 +6789,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6933,10 +6800,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6959,13 +6826,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7016,7 +6883,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7034,7 +6901,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -7045,10 +6912,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7071,13 +6938,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7128,7 +6995,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7146,7 +7013,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7157,10 +7024,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7183,16 +7050,20 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7240,7 +7111,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7258,7 +7129,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7269,10 +7140,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7295,13 +7166,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7352,7 +7223,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7370,7 +7241,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7395,7 +7266,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7404,23 +7275,21 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7444,13 +7313,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7474,7 +7343,7 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -7511,7 +7380,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7523,13 +7392,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7580,25 +7449,25 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7609,10 +7478,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7623,7 +7492,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7632,20 +7501,18 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>132</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7670,28 +7537,26 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>370</v>
@@ -7700,19 +7565,19 @@
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7723,12 +7588,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7749,15 +7616,17 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7806,19 +7675,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7835,10 +7704,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7849,7 +7718,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7861,13 +7730,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>132</v>
+        <v>378</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7906,29 +7775,31 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7945,14 +7816,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7973,18 +7842,18 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -8032,19 +7901,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -8061,10 +7930,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8084,19 +7953,23 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8120,13 +7993,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -8144,7 +8017,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8156,13 +8029,13 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -8173,10 +8046,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8199,7 +8072,7 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>394</v>
@@ -8208,9 +8081,7 @@
         <v>395</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>396</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8234,13 +8105,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8258,7 +8129,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8287,10 +8158,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8310,23 +8181,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N54" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8350,14 +8217,14 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>341</v>
+        <v>220</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8374,7 +8241,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8392,7 +8259,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8403,10 +8270,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8423,21 +8290,23 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8462,13 +8331,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8486,7 +8355,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8515,10 +8384,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8541,16 +8410,18 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8574,13 +8445,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8598,7 +8469,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8616,7 +8487,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8627,14 +8498,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8647,13 +8518,13 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>239</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>416</v>
@@ -8664,7 +8535,9 @@
       <c r="N57" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8712,7 +8585,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8730,7 +8603,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8741,10 +8614,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8767,18 +8640,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>194</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8826,7 +8697,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8838,7 +8709,7 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8862,14 +8733,14 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8881,20 +8752,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>132</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8930,37 +8797,37 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8971,12 +8838,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8997,15 +8866,17 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>206</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -9054,25 +8925,25 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -9083,10 +8954,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9097,7 +8968,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -9106,18 +8977,20 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>132</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -9154,37 +9027,37 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -9195,14 +9068,12 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9220,19 +9091,19 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9258,13 +9129,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -9282,25 +9153,25 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9311,10 +9182,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9337,16 +9208,16 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9396,7 +9267,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9405,7 +9276,7 @@
         <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>98</v>
@@ -9414,7 +9285,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -9451,7 +9322,7 @@
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>451</v>
@@ -9486,31 +9357,31 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9539,10 +9410,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9553,7 +9424,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9562,20 +9433,18 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>197</v>
+        <v>456</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>460</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9624,13 +9493,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -9642,7 +9511,7 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>203</v>
+        <v>459</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9653,10 +9522,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9676,20 +9545,18 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9738,7 +9605,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>466</v>
+        <v>368</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9750,13 +9617,13 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>129</v>
+        <v>424</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9767,10 +9634,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9793,13 +9660,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>470</v>
+        <v>133</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9838,19 +9705,17 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>467</v>
+        <v>370</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9862,13 +9727,13 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>471</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9879,12 +9744,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9905,15 +9772,17 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>206</v>
+        <v>464</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9962,25 +9831,25 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9991,14 +9860,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10011,22 +9880,26 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>132</v>
+        <v>470</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10062,17 +9935,19 @@
         <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC69" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>382</v>
+        <v>472</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10090,7 +9965,7 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -10101,23 +9976,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10129,17 +10002,15 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>476</v>
+        <v>106</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -10164,13 +10035,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -10188,25 +10059,25 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>382</v>
+        <v>473</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10224,39 +10095,35 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>481</v>
+        <v>366</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10304,25 +10171,25 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>483</v>
+        <v>368</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10333,10 +10200,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10344,10 +10211,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -10359,13 +10226,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>485</v>
+        <v>132</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>486</v>
+        <v>133</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10392,49 +10259,47 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10445,12 +10310,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10471,15 +10338,17 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>293</v>
+        <v>483</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10504,13 +10373,13 @@
         <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>77</v>
@@ -10528,25 +10397,25 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>495</v>
+        <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10557,10 +10426,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10583,13 +10452,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>497</v>
+        <v>194</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>161</v>
+        <v>378</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10616,13 +10485,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>499</v>
+        <v>77</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>500</v>
+        <v>77</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10640,7 +10509,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10652,13 +10521,13 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10669,14 +10538,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>503</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10695,13 +10564,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10728,13 +10597,13 @@
         <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>77</v>
+        <v>491</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>77</v>
@@ -10752,7 +10621,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10770,7 +10639,7 @@
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10781,10 +10650,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10795,7 +10664,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10807,17 +10676,15 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10842,13 +10709,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10866,13 +10733,13 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
@@ -10884,7 +10751,7 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10895,21 +10762,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10921,20 +10788,16 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>293</v>
+        <v>501</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10958,13 +10821,13 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>519</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>520</v>
+        <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -10982,13 +10845,13 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
@@ -11000,7 +10863,7 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -11011,10 +10874,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11037,18 +10900,18 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11096,7 +10959,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11114,7 +10977,7 @@
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>77</v>
+        <v>510</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -11125,10 +10988,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11139,7 +11002,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -11151,16 +11014,20 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>434</v>
+        <v>512</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11184,13 +11051,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>77</v>
+        <v>516</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>77</v>
+        <v>517</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -11208,25 +11075,25 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>380</v>
+        <v>511</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>436</v>
+        <v>518</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11237,10 +11104,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11263,16 +11130,18 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>131</v>
+        <v>520</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>132</v>
+        <v>521</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>133</v>
+        <v>522</v>
       </c>
       <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11308,19 +11177,19 @@
         <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>382</v>
+        <v>519</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11332,7 +11201,7 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -11349,14 +11218,12 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11365,7 +11232,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11377,18 +11244,18 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11436,7 +11303,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11448,7 +11315,7 @@
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11465,10 +11332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11479,7 +11346,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11488,20 +11355,18 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>206</v>
+        <v>525</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11550,16 +11415,16 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>448</v>
+        <v>529</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>98</v>
@@ -11568,7 +11433,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11579,10 +11444,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11602,19 +11467,19 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>100</v>
+        <v>533</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>452</v>
+        <v>535</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>453</v>
+        <v>536</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11640,13 +11505,13 @@
         <v>77</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
@@ -11664,7 +11529,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>456</v>
+        <v>532</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11707,7 +11572,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
@@ -11716,19 +11581,19 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>197</v>
+        <v>456</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>458</v>
+        <v>538</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>459</v>
+        <v>539</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11778,13 +11643,13 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
@@ -11796,7 +11661,7 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
@@ -11807,10 +11672,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11830,20 +11695,18 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11892,7 +11755,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>466</v>
+        <v>368</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11904,13 +11767,13 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>129</v>
+        <v>424</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
@@ -11921,14 +11784,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11947,18 +11810,18 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>540</v>
+        <v>131</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
       </c>
@@ -12006,7 +11869,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>539</v>
+        <v>370</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12018,13 +11881,13 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -12035,42 +11898,46 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12118,25 +11985,25 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>380</v>
+        <v>472</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -12147,10 +12014,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12158,10 +12025,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -12173,15 +12040,17 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>132</v>
+        <v>547</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -12218,37 +12087,37 @@
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>382</v>
+        <v>546</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12259,20 +12128,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>86</v>
@@ -12287,16 +12154,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12346,2304 +12213,30 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>382</v>
+        <v>550</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="D97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC105" s="2"/>
-      <c r="AD105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="D106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN109" t="s" s="2">
         <v>77</v>
       </c>
     </row>
